--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H2">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I2">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J2">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.6786780568287</v>
+        <v>23.59622066666667</v>
       </c>
       <c r="N2">
-        <v>21.6786780568287</v>
+        <v>70.788662</v>
       </c>
       <c r="O2">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="P2">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="Q2">
-        <v>34.92563661082934</v>
+        <v>49.52582440261867</v>
       </c>
       <c r="R2">
-        <v>34.92563661082934</v>
+        <v>445.732419623568</v>
       </c>
       <c r="S2">
-        <v>0.05949785495087203</v>
+        <v>0.07573634167657693</v>
       </c>
       <c r="T2">
-        <v>0.05949785495087203</v>
+        <v>0.0757363416765769</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H3">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I3">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J3">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.55753412207893</v>
+        <v>7.778025666666667</v>
       </c>
       <c r="N3">
-        <v>7.55753412207893</v>
+        <v>23.334077</v>
       </c>
       <c r="O3">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="P3">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="Q3">
-        <v>12.17563588193645</v>
+        <v>16.32520473545867</v>
       </c>
       <c r="R3">
-        <v>12.17563588193645</v>
+        <v>146.926842619128</v>
       </c>
       <c r="S3">
-        <v>0.02074190445575061</v>
+        <v>0.02496498137483592</v>
       </c>
       <c r="T3">
-        <v>0.02074190445575061</v>
+        <v>0.02496498137483591</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H4">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I4">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J4">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.32091143117285</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N4">
-        <v>2.32091143117285</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O4">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="P4">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="Q4">
-        <v>3.73912602228665</v>
+        <v>4.933231952234668</v>
       </c>
       <c r="R4">
-        <v>3.73912602228665</v>
+        <v>44.399087570112</v>
       </c>
       <c r="S4">
-        <v>0.006369818829531695</v>
+        <v>0.007544042834438836</v>
       </c>
       <c r="T4">
-        <v>0.006369818829531695</v>
+        <v>0.007544042834438834</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H5">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I5">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J5">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.6786780568287</v>
+        <v>23.59622066666667</v>
       </c>
       <c r="N5">
-        <v>21.6786780568287</v>
+        <v>70.788662</v>
       </c>
       <c r="O5">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="P5">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="Q5">
-        <v>338.4603008515233</v>
+        <v>374.5933930737024</v>
       </c>
       <c r="R5">
-        <v>338.4603008515233</v>
+        <v>3371.340537663322</v>
       </c>
       <c r="S5">
-        <v>0.5765868239162859</v>
+        <v>0.5728391914687266</v>
       </c>
       <c r="T5">
-        <v>0.5765868239162859</v>
+        <v>0.5728391914687266</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H6">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I6">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J6">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.55753412207893</v>
+        <v>7.778025666666667</v>
       </c>
       <c r="N6">
-        <v>7.55753412207893</v>
+        <v>23.334077</v>
       </c>
       <c r="O6">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="P6">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="Q6">
-        <v>117.9926776876854</v>
+        <v>123.4772749013541</v>
       </c>
       <c r="R6">
-        <v>117.9926776876854</v>
+        <v>1111.295474112187</v>
       </c>
       <c r="S6">
-        <v>0.2010073946697975</v>
+        <v>0.1888250663976247</v>
       </c>
       <c r="T6">
-        <v>0.2010073946697975</v>
+        <v>0.1888250663976247</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H7">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I7">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J7">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.32091143117285</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N7">
-        <v>2.32091143117285</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O7">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="P7">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="Q7">
-        <v>36.23543738161937</v>
+        <v>37.31298000784978</v>
       </c>
       <c r="R7">
-        <v>36.23543738161937</v>
+        <v>335.816820070648</v>
       </c>
       <c r="S7">
-        <v>0.06172917680602877</v>
+        <v>0.05706010221803342</v>
       </c>
       <c r="T7">
-        <v>0.06172917680602877</v>
+        <v>0.05706010221803341</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H8">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I8">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J8">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.6786780568287</v>
+        <v>23.59622066666667</v>
       </c>
       <c r="N8">
-        <v>21.6786780568287</v>
+        <v>70.788662</v>
       </c>
       <c r="O8">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="P8">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="Q8">
-        <v>29.86780562365122</v>
+        <v>33.41375862212266</v>
       </c>
       <c r="R8">
-        <v>29.86780562365122</v>
+        <v>300.723827599104</v>
       </c>
       <c r="S8">
-        <v>0.05088154545322809</v>
+        <v>0.05109729863618269</v>
       </c>
       <c r="T8">
-        <v>0.05088154545322809</v>
+        <v>0.05109729863618268</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H9">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I9">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J9">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.55753412207893</v>
+        <v>7.778025666666667</v>
       </c>
       <c r="N9">
-        <v>7.55753412207893</v>
+        <v>23.334077</v>
       </c>
       <c r="O9">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="P9">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="Q9">
-        <v>10.41239505290139</v>
+        <v>11.01418213764267</v>
       </c>
       <c r="R9">
-        <v>10.41239505290139</v>
+        <v>99.12763923878398</v>
       </c>
       <c r="S9">
-        <v>0.01773812106710783</v>
+        <v>0.01684321001672107</v>
       </c>
       <c r="T9">
-        <v>0.01773812106710783</v>
+        <v>0.01684321001672106</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H10">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I10">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J10">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.32091143117285</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N10">
-        <v>2.32091143117285</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O10">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="P10">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="Q10">
-        <v>3.197636466313274</v>
+        <v>3.328320601770667</v>
       </c>
       <c r="R10">
-        <v>3.197636466313274</v>
+        <v>29.954885415936</v>
       </c>
       <c r="S10">
-        <v>0.00544735985139738</v>
+        <v>0.005089765376859934</v>
       </c>
       <c r="T10">
-        <v>0.00544735985139738</v>
+        <v>0.005089765376859933</v>
       </c>
     </row>
   </sheetData>
